--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Anual.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Anual.xlsx
@@ -591,7 +591,7 @@
         <v>88.09999999999999</v>
       </c>
       <c r="C11">
-        <v>88.17</v>
+        <v>88.16</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -608,7 +608,7 @@
         <v>90.04000000000001</v>
       </c>
       <c r="C12">
-        <v>90.15000000000001</v>
+        <v>90.14</v>
       </c>
       <c r="D12">
         <v>102.2</v>
@@ -625,7 +625,7 @@
         <v>93.25</v>
       </c>
       <c r="C13">
-        <v>93.20999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="D13">
         <v>105.85</v>
@@ -645,7 +645,7 @@
         <v>96.43000000000001</v>
       </c>
       <c r="C14">
-        <v>96.42</v>
+        <v>96.41</v>
       </c>
       <c r="D14">
         <v>109.45</v>
@@ -665,7 +665,7 @@
         <v>99.67</v>
       </c>
       <c r="C15">
-        <v>99.95</v>
+        <v>99.94</v>
       </c>
       <c r="D15">
         <v>113.14</v>
@@ -705,7 +705,7 @@
         <v>100.46</v>
       </c>
       <c r="C17">
-        <v>100.54</v>
+        <v>100.53</v>
       </c>
       <c r="D17">
         <v>113.13</v>
@@ -745,7 +745,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="C19">
-        <v>98.56</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="E19">
         <v>96.7</v>
@@ -762,7 +762,7 @@
         <v>101.95</v>
       </c>
       <c r="C20">
-        <v>102.18</v>
+        <v>102.17</v>
       </c>
       <c r="E20">
         <v>99.34</v>
@@ -776,10 +776,10 @@
         <v>101.3</v>
       </c>
       <c r="C21">
-        <v>101.48</v>
+        <v>101.47</v>
       </c>
       <c r="E21">
-        <v>98.44</v>
+        <v>98.43000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6">

--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Anual.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Anual.xlsx
@@ -651,7 +651,7 @@
         <v>109.45</v>
       </c>
       <c r="E14">
-        <v>101.02</v>
+        <v>101</v>
       </c>
       <c r="F14">
         <v>114.98</v>
@@ -671,7 +671,7 @@
         <v>113.14</v>
       </c>
       <c r="E15">
-        <v>100.5</v>
+        <v>100.49</v>
       </c>
       <c r="F15">
         <v>115.51</v>
@@ -745,10 +745,10 @@
         <v>98.48999999999999</v>
       </c>
       <c r="C19">
-        <v>98.56999999999999</v>
+        <v>98.56</v>
       </c>
       <c r="E19">
-        <v>96.7</v>
+        <v>96.69</v>
       </c>
       <c r="F19">
         <v>111.98</v>
@@ -765,7 +765,7 @@
         <v>102.17</v>
       </c>
       <c r="E20">
-        <v>99.34</v>
+        <v>99.33</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -793,7 +793,7 @@
         <v>99.94</v>
       </c>
       <c r="E22">
-        <v>98.26000000000001</v>
+        <v>98.25</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Anual.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Anual.xlsx
@@ -608,7 +608,7 @@
         <v>90.04000000000001</v>
       </c>
       <c r="C12">
-        <v>90.14</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="D12">
         <v>102.2</v>
@@ -645,7 +645,7 @@
         <v>96.43000000000001</v>
       </c>
       <c r="C14">
-        <v>96.41</v>
+        <v>96.42</v>
       </c>
       <c r="D14">
         <v>109.45</v>
@@ -685,7 +685,7 @@
         <v>100</v>
       </c>
       <c r="C16">
-        <v>100.11</v>
+        <v>100.1</v>
       </c>
       <c r="D16">
         <v>113.51</v>
@@ -745,7 +745,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="C19">
-        <v>98.56</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="E19">
         <v>96.69</v>
